--- a/pred_ohlcv/54_21/2019-11-20 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 WOM ohlcv.xlsx
@@ -3096,7 +3096,7 @@
         <v>-50055.669</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-51199.97360000001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-46983.22050000001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>73687.2649828125</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>71918.0464828125</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>71933.08618281249</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>44497.05388281249</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>44502.05388281249</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>44464.11728281249</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>44469.11728281249</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>44940.8428828125</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>42976.49577537448</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>11425.53487537448</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>12001.25037537448</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2378.095175374484</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-97.6639246255163</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-92.6639246255163</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1399.889724625516</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1394.889724625516</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-66390.28371118012</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-64353.64021118012</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-70049.27001118012</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 WOM ohlcv.xlsx
@@ -2966,7 +2966,7 @@
         <v>-41196.5075</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-60480.4468</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-49949.2961</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-49944.2961</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-50055.669</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-49373.91790000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-25983.90220000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>73687.2649828125</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>71918.0464828125</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>71822.08618281249</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>44497.05388281249</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>44502.05388281249</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>44502.05388281249</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>44464.11728281249</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>44469.11728281249</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>40391.86988281249</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>39949.77298281249</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>42976.49577537448</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>11425.53487537448</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>12001.25037537448</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2373.795175374484</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2378.095175374484</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-97.6639246255163</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-92.6639246255163</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1399.889724625516</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1394.889724625516</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-67917.97861118012</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-66390.28371118012</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-64353.64021118012</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-70049.27001118012</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67114.22861118012</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-66919.22861118012</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-66933.43771118012</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-66933.43771118012</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-42318.54321118011</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-42318.54321118011</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-42337.81101118011</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-42342.81101118011</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-42342.81101118011</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-42342.11101118012</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
